--- a/example_for_upload.xlsx
+++ b/example_for_upload.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Form Responses 1'!$A$1:$A$17</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
   <si>
     <t xml:space="preserve">Timestamp</t>
   </si>
@@ -88,6 +91,9 @@
     <t xml:space="preserve">Jessalyn nguyen </t>
   </si>
   <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
     <t xml:space="preserve">rjackie255@gmail.com</t>
   </si>
   <si>
@@ -98,6 +104,12 @@
   </si>
   <si>
     <t xml:space="preserve">Krystal Alexander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alexanderklynne</t>
   </si>
 </sst>
 </file>
@@ -198,40 +210,44 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -244,7 +260,28 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -257,146 +294,288 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="3" style="0" width="18.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="33.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="3" style="1" width="18.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="66.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
-        <v>45527.7033627546</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
+        <v>45294.8881481482</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="5" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
-        <v>45527.7193028357</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="H2" s="1" t="n">
+        <v>562</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="T2" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
+        <v>45314.8881481482</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="C3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="R3" s="4" t="n">
+      <c r="G3" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
-        <v>45527.8881488194</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="K3" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
+        <v>45314.8881481482</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="C4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="5" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="7"/>
+      <c r="F4" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
+        <v>45319.8881481482</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>2</v>
+      </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="7"/>
+      <c r="G5" s="8" t="n">
+        <v>265914</v>
+      </c>
+      <c r="H5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7" t="n">
+        <v>4</v>
+      </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -416,21 +595,45 @@
       <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7"/>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
+        <v>45319.8881481482</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2</v>
+      </c>
       <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="7"/>
+      <c r="G6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7" t="n">
+        <v>10</v>
+      </c>
       <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
+      <c r="K6" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="M6" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" s="7" t="n">
+        <v>2</v>
+      </c>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
@@ -445,18 +648,34 @@
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="n">
+        <v>45323.8881481482</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2</v>
+      </c>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="H7" s="8" t="n">
+        <v>150</v>
+      </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="J7" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" s="7" t="n">
+        <v>4</v>
+      </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
@@ -474,24 +693,44 @@
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="n">
+        <v>45345.7192939815</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>101</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="H8" s="8"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
+      <c r="M8" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="N8" s="7" t="n">
+        <v>4</v>
+      </c>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
+      <c r="Q8" s="7" t="n">
+        <v>4</v>
+      </c>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
@@ -503,15 +742,27 @@
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
+        <v>45360.8881481482</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>59726</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>3</v>
+      </c>
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="H9" s="8" t="n">
+        <v>45</v>
+      </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -532,12 +783,22 @@
       <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="7"/>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="n">
+        <v>45376.8881134259</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>103</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>3</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -561,20 +822,40 @@
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="7"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="n">
+        <v>45408.8881481482</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>104</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>3</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
+      <c r="I11" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="J11" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="L11" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="7" t="n">
+        <v>3</v>
+      </c>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
@@ -590,13 +871,25 @@
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="n">
+        <v>45429.8881481482</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>105</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="F12" s="7" t="n">
+        <v>3</v>
+      </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="7"/>
@@ -619,15 +912,27 @@
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="7"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="n">
+        <v>45471.8881481482</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>106</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>5</v>
+      </c>
       <c r="F13" s="7"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="H13" s="8" t="n">
+        <v>6</v>
+      </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
@@ -648,12 +953,22 @@
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="7"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="n">
+        <v>45504.8881481482</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>6</v>
+      </c>
       <c r="F14" s="7"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -677,19 +992,37 @@
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="7"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="n">
+        <v>45517.7033564815</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>101</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>7</v>
+      </c>
       <c r="F15" s="7"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
+      <c r="I15" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="J15" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="K15" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="L15" s="7" t="n">
+        <v>2</v>
+      </c>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -706,15 +1039,27 @@
       <c r="Z15" s="7"/>
       <c r="AA15" s="7"/>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="7"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="n">
+        <v>45539.8881481482</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>102</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>2</v>
+      </c>
       <c r="F16" s="7"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="H16" s="8" t="n">
+        <v>7</v>
+      </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
@@ -735,27 +1080,61 @@
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="7"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="n">
+        <v>45656.8881481482</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>103</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>2</v>
+      </c>
       <c r="F17" s="7"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
+      <c r="I17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
@@ -765,7 +1144,7 @@
       <c r="AA17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="8"/>
@@ -794,7 +1173,7 @@
       <c r="AA18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="8"/>
@@ -823,7 +1202,7 @@
       <c r="AA19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="8"/>
@@ -852,7 +1231,7 @@
       <c r="AA20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="8"/>
@@ -881,7 +1260,7 @@
       <c r="AA21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="8"/>
@@ -910,7 +1289,7 @@
       <c r="AA22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
@@ -939,7 +1318,7 @@
       <c r="AA23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="8"/>
@@ -968,7 +1347,7 @@
       <c r="AA24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="8"/>
@@ -997,7 +1376,7 @@
       <c r="AA25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="8"/>
@@ -1026,7 +1405,7 @@
       <c r="AA26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="8"/>
@@ -1055,7 +1434,7 @@
       <c r="AA27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="8"/>
@@ -1084,7 +1463,7 @@
       <c r="AA28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6"/>
+      <c r="A29" s="9"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
@@ -1113,7 +1492,7 @@
       <c r="AA29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6"/>
+      <c r="A30" s="9"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
@@ -1142,7 +1521,7 @@
       <c r="AA30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6"/>
+      <c r="A31" s="9"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
@@ -1171,7 +1550,7 @@
       <c r="AA31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6"/>
+      <c r="A32" s="9"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="8"/>
@@ -1200,7 +1579,7 @@
       <c r="AA32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6"/>
+      <c r="A33" s="9"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="8"/>
@@ -1229,7 +1608,7 @@
       <c r="AA33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6"/>
+      <c r="A34" s="9"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="8"/>
@@ -1258,7 +1637,7 @@
       <c r="AA34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6"/>
+      <c r="A35" s="9"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="8"/>
@@ -1287,7 +1666,7 @@
       <c r="AA35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6"/>
+      <c r="A36" s="9"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="8"/>
@@ -1316,7 +1695,7 @@
       <c r="AA36" s="7"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6"/>
+      <c r="A37" s="9"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="8"/>
@@ -1345,7 +1724,7 @@
       <c r="AA37" s="7"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6"/>
+      <c r="A38" s="9"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="8"/>
@@ -1374,7 +1753,7 @@
       <c r="AA38" s="7"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6"/>
+      <c r="A39" s="9"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="8"/>
@@ -1403,7 +1782,7 @@
       <c r="AA39" s="7"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6"/>
+      <c r="A40" s="9"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="8"/>
@@ -1432,7 +1811,7 @@
       <c r="AA40" s="7"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6"/>
+      <c r="A41" s="9"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="8"/>
@@ -1461,7 +1840,7 @@
       <c r="AA41" s="7"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6"/>
+      <c r="A42" s="9"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="8"/>
@@ -1490,7 +1869,7 @@
       <c r="AA42" s="7"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6"/>
+      <c r="A43" s="9"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="8"/>
@@ -1519,7 +1898,7 @@
       <c r="AA43" s="7"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6"/>
+      <c r="A44" s="9"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="8"/>
@@ -1548,7 +1927,7 @@
       <c r="AA44" s="7"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6"/>
+      <c r="A45" s="9"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="8"/>
@@ -1577,7 +1956,7 @@
       <c r="AA45" s="7"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6"/>
+      <c r="A46" s="9"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="8"/>
@@ -1606,7 +1985,7 @@
       <c r="AA46" s="7"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6"/>
+      <c r="A47" s="9"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="8"/>
@@ -1635,7 +2014,7 @@
       <c r="AA47" s="7"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6"/>
+      <c r="A48" s="9"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="8"/>
@@ -1664,7 +2043,7 @@
       <c r="AA48" s="7"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6"/>
+      <c r="A49" s="9"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="8"/>
@@ -1693,7 +2072,7 @@
       <c r="AA49" s="7"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6"/>
+      <c r="A50" s="9"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="8"/>
@@ -1722,7 +2101,7 @@
       <c r="AA50" s="7"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="6"/>
+      <c r="A51" s="9"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="8"/>
@@ -1751,7 +2130,7 @@
       <c r="AA51" s="7"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6"/>
+      <c r="A52" s="9"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="8"/>
@@ -1780,7 +2159,7 @@
       <c r="AA52" s="7"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="6"/>
+      <c r="A53" s="9"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="8"/>
@@ -1809,7 +2188,7 @@
       <c r="AA53" s="7"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="6"/>
+      <c r="A54" s="9"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="8"/>
@@ -1838,7 +2217,7 @@
       <c r="AA54" s="7"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="6"/>
+      <c r="A55" s="9"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="8"/>
@@ -1867,7 +2246,7 @@
       <c r="AA55" s="7"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="6"/>
+      <c r="A56" s="9"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="8"/>
@@ -1896,7 +2275,7 @@
       <c r="AA56" s="7"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="6"/>
+      <c r="A57" s="9"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" s="8"/>
@@ -1925,7 +2304,7 @@
       <c r="AA57" s="7"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6"/>
+      <c r="A58" s="9"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="8"/>
@@ -1954,7 +2333,7 @@
       <c r="AA58" s="7"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="6"/>
+      <c r="A59" s="9"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
       <c r="D59" s="8"/>
@@ -1983,7 +2362,7 @@
       <c r="AA59" s="7"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="6"/>
+      <c r="A60" s="9"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
       <c r="D60" s="8"/>
@@ -2012,7 +2391,7 @@
       <c r="AA60" s="7"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="6"/>
+      <c r="A61" s="9"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="8"/>
@@ -2041,7 +2420,7 @@
       <c r="AA61" s="7"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="6"/>
+      <c r="A62" s="9"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
       <c r="D62" s="8"/>
@@ -2070,7 +2449,7 @@
       <c r="AA62" s="7"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="6"/>
+      <c r="A63" s="9"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
       <c r="D63" s="8"/>
@@ -2099,7 +2478,7 @@
       <c r="AA63" s="7"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="6"/>
+      <c r="A64" s="9"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" s="8"/>
@@ -2128,7 +2507,7 @@
       <c r="AA64" s="7"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="6"/>
+      <c r="A65" s="9"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
       <c r="D65" s="8"/>
@@ -2157,7 +2536,7 @@
       <c r="AA65" s="7"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="6"/>
+      <c r="A66" s="9"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
       <c r="D66" s="8"/>
@@ -2186,7 +2565,7 @@
       <c r="AA66" s="7"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="6"/>
+      <c r="A67" s="9"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
       <c r="D67" s="8"/>
@@ -2215,7 +2594,7 @@
       <c r="AA67" s="7"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="6"/>
+      <c r="A68" s="9"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
       <c r="D68" s="8"/>
@@ -2244,7 +2623,7 @@
       <c r="AA68" s="7"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="6"/>
+      <c r="A69" s="9"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
       <c r="D69" s="8"/>
@@ -2273,7 +2652,7 @@
       <c r="AA69" s="7"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="6"/>
+      <c r="A70" s="9"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
       <c r="D70" s="8"/>
@@ -2302,7 +2681,7 @@
       <c r="AA70" s="7"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="6"/>
+      <c r="A71" s="9"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
       <c r="D71" s="8"/>
@@ -2331,7 +2710,7 @@
       <c r="AA71" s="7"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="6"/>
+      <c r="A72" s="9"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
       <c r="D72" s="8"/>
@@ -2360,7 +2739,7 @@
       <c r="AA72" s="7"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="6"/>
+      <c r="A73" s="9"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
       <c r="D73" s="8"/>
@@ -2389,7 +2768,7 @@
       <c r="AA73" s="7"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="6"/>
+      <c r="A74" s="9"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
       <c r="D74" s="8"/>
@@ -2418,7 +2797,7 @@
       <c r="AA74" s="7"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="6"/>
+      <c r="A75" s="9"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
       <c r="D75" s="8"/>
@@ -2447,7 +2826,7 @@
       <c r="AA75" s="7"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="6"/>
+      <c r="A76" s="9"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
       <c r="D76" s="8"/>
@@ -2476,7 +2855,7 @@
       <c r="AA76" s="7"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="6"/>
+      <c r="A77" s="9"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
       <c r="D77" s="8"/>
@@ -2505,7 +2884,7 @@
       <c r="AA77" s="7"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="6"/>
+      <c r="A78" s="9"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
       <c r="D78" s="8"/>
@@ -2534,7 +2913,7 @@
       <c r="AA78" s="7"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="6"/>
+      <c r="A79" s="9"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
       <c r="D79" s="8"/>
@@ -2563,7 +2942,7 @@
       <c r="AA79" s="7"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="6"/>
+      <c r="A80" s="9"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
       <c r="D80" s="8"/>
@@ -2592,7 +2971,7 @@
       <c r="AA80" s="7"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="6"/>
+      <c r="A81" s="9"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
       <c r="D81" s="8"/>
@@ -2621,7 +3000,7 @@
       <c r="AA81" s="7"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="6"/>
+      <c r="A82" s="9"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
       <c r="D82" s="8"/>
@@ -2650,7 +3029,7 @@
       <c r="AA82" s="7"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="6"/>
+      <c r="A83" s="9"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
       <c r="D83" s="8"/>
@@ -2679,7 +3058,7 @@
       <c r="AA83" s="7"/>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="6"/>
+      <c r="A84" s="9"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
       <c r="D84" s="8"/>
@@ -2708,7 +3087,7 @@
       <c r="AA84" s="7"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="6"/>
+      <c r="A85" s="9"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
       <c r="D85" s="8"/>
@@ -2737,7 +3116,7 @@
       <c r="AA85" s="7"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="6"/>
+      <c r="A86" s="9"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
       <c r="D86" s="8"/>
@@ -2766,7 +3145,7 @@
       <c r="AA86" s="7"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="6"/>
+      <c r="A87" s="9"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
       <c r="D87" s="8"/>
@@ -2795,7 +3174,7 @@
       <c r="AA87" s="7"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="6"/>
+      <c r="A88" s="9"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
       <c r="D88" s="8"/>
@@ -2824,7 +3203,7 @@
       <c r="AA88" s="7"/>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="6"/>
+      <c r="A89" s="9"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
       <c r="D89" s="8"/>
@@ -2853,7 +3232,7 @@
       <c r="AA89" s="7"/>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="6"/>
+      <c r="A90" s="9"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
       <c r="D90" s="8"/>
@@ -2882,7 +3261,7 @@
       <c r="AA90" s="7"/>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="6"/>
+      <c r="A91" s="9"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
       <c r="D91" s="8"/>
@@ -2911,7 +3290,7 @@
       <c r="AA91" s="7"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="6"/>
+      <c r="A92" s="9"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
       <c r="D92" s="8"/>
@@ -2940,7 +3319,7 @@
       <c r="AA92" s="7"/>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="6"/>
+      <c r="A93" s="9"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
       <c r="D93" s="8"/>
@@ -2969,7 +3348,7 @@
       <c r="AA93" s="7"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="6"/>
+      <c r="A94" s="9"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
       <c r="D94" s="8"/>
@@ -2998,7 +3377,7 @@
       <c r="AA94" s="7"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="6"/>
+      <c r="A95" s="9"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
       <c r="D95" s="8"/>
@@ -3027,7 +3406,7 @@
       <c r="AA95" s="7"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="6"/>
+      <c r="A96" s="9"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
       <c r="D96" s="8"/>
@@ -3056,7 +3435,7 @@
       <c r="AA96" s="7"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="6"/>
+      <c r="A97" s="9"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
       <c r="D97" s="8"/>
@@ -3085,7 +3464,7 @@
       <c r="AA97" s="7"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="6"/>
+      <c r="A98" s="9"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
       <c r="D98" s="8"/>
@@ -3114,7 +3493,7 @@
       <c r="AA98" s="7"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="6"/>
+      <c r="A99" s="9"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
       <c r="D99" s="8"/>
@@ -3143,7 +3522,7 @@
       <c r="AA99" s="7"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="6"/>
+      <c r="A100" s="9"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
       <c r="D100" s="8"/>
@@ -3172,7 +3551,7 @@
       <c r="AA100" s="7"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="6"/>
+      <c r="A101" s="9"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
       <c r="D101" s="8"/>
@@ -3201,7 +3580,7 @@
       <c r="AA101" s="7"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="6"/>
+      <c r="A102" s="9"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
       <c r="D102" s="8"/>
@@ -3230,7 +3609,7 @@
       <c r="AA102" s="7"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="6"/>
+      <c r="A103" s="9"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
       <c r="D103" s="8"/>
@@ -3259,7 +3638,7 @@
       <c r="AA103" s="7"/>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="6"/>
+      <c r="A104" s="9"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
       <c r="D104" s="8"/>
@@ -3288,6 +3667,7 @@
       <c r="AA104" s="7"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A17"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3295,5 +3675,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/example_for_upload.xlsx
+++ b/example_for_upload.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
   <si>
     <t xml:space="preserve">Timestamp</t>
   </si>
@@ -109,7 +109,19 @@
     <t xml:space="preserve">no</t>
   </si>
   <si>
+    <t xml:space="preserve">Candy $30 Paper $45</t>
+  </si>
+  <si>
     <t xml:space="preserve">alexanderklynne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Candy $15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bus Ticket $25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item 10 Item 10 Item 10 Item 10 Item 10</t>
   </si>
 </sst>
 </file>
@@ -294,7 +306,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
+      <selection pane="bottomLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -822,7 +834,7 @@
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
         <v>45408.8881481482</v>
       </c>
@@ -840,7 +852,9 @@
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="H11" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="I11" s="7" t="n">
         <v>5</v>
       </c>
@@ -876,7 +890,7 @@
         <v>45429.8881481482</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>24</v>
@@ -891,7 +905,9 @@
         <v>3</v>
       </c>
       <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="H12" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -971,7 +987,9 @@
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="H14" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -1080,7 +1098,7 @@
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="n">
         <v>45656.8881481482</v>
       </c>
@@ -1098,7 +1116,9 @@
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+      <c r="H17" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="I17" s="7" t="n">
         <v>1</v>
       </c>

--- a/example_for_upload.xlsx
+++ b/example_for_upload.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t xml:space="preserve">Timestamp</t>
   </si>
@@ -107,21 +107,6 @@
   </si>
   <si>
     <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Candy $30 Paper $45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alexanderklynne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Candy $15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bus Ticket $25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item 10 Item 10 Item 10 Item 10 Item 10</t>
   </si>
 </sst>
 </file>
@@ -292,10 +277,10 @@
   </sheetPr>
   <dimension ref="A1:AA104"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="E36" activeCellId="0" sqref="E36"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -823,42 +808,20 @@
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
     </row>
-    <row r="11" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
-        <v>45408.8881481482</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>104</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>3</v>
-      </c>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="6"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="J11" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K11" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="L11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" s="6" t="n">
-        <v>3</v>
-      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -875,28 +838,14 @@
       <c r="AA11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
-        <v>45429.8881481482</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>105</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v>16</v>
-      </c>
-      <c r="F12" s="6" t="n">
-        <v>3</v>
-      </c>
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="6"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="H12" s="7"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
@@ -918,26 +867,14 @@
       <c r="AA12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
-        <v>45471.8881481482</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="5" t="n">
-        <v>106</v>
-      </c>
-      <c r="E13" s="4" t="n">
-        <v>5</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="6"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="7" t="n">
-        <v>6</v>
-      </c>
+      <c r="H13" s="7"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -959,26 +896,14 @@
       <c r="AA13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
-        <v>45504.8881481482</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="E14" s="4" t="n">
-        <v>6</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="6"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="H14" s="7"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
@@ -1000,36 +925,18 @@
       <c r="AA14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
-        <v>45517.7033564815</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>101</v>
-      </c>
-      <c r="E15" s="4" t="n">
-        <v>7</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="6"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="J15" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="K15" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="L15" s="6" t="n">
-        <v>2</v>
-      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
@@ -1047,26 +954,14 @@
       <c r="AA15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
-        <v>45539.8881481482</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="5" t="n">
-        <v>102</v>
-      </c>
-      <c r="E16" s="4" t="n">
-        <v>2</v>
-      </c>
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="6"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="7" t="n">
-        <v>7</v>
-      </c>
+      <c r="H16" s="7"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -1087,63 +982,27 @@
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
     </row>
-    <row r="17" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
-        <v>45656.8881481482</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="5" t="n">
-        <v>103</v>
-      </c>
-      <c r="E17" s="4" t="n">
-        <v>2</v>
-      </c>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="6"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O17" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="S17" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="T17" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>

--- a/example_for_upload.xlsx
+++ b/example_for_upload.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="45">
   <si>
     <t xml:space="preserve">Timestamp</t>
   </si>
@@ -107,17 +107,70 @@
   </si>
   <si>
     <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bayyjohnson13@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bailey Johnson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TommyLamarrowens@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tommy Owens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aldynrichmond@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aldyn Richmond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kimberlypandalover849@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kimberly Nguyen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i have no idea $80?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sports posters $10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">posters $2 paint $3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maybe 3?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I think 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maybe $100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy\ h:mm:ss"/>
     <numFmt numFmtId="166" formatCode="\$#,##0"/>
     <numFmt numFmtId="167" formatCode="\$#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="mm/dd/yy\ hh:mm\ AM/PM"/>
+    <numFmt numFmtId="169" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -200,7 +253,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -233,7 +286,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -280,7 +353,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -809,14 +882,28 @@
       <c r="AA10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
+      <c r="A11" s="3" t="n">
+        <v>45651.8881134259</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>103</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>3</v>
+      </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -837,160 +924,248 @@
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="n">
+        <v>45527.8881481482</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="10" t="n">
+        <v>100</v>
+      </c>
+      <c r="E12" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="n">
+        <v>45530.4126157407</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="10" t="n">
+        <v>115</v>
+      </c>
+      <c r="E13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="n">
+        <v>45530.5646643519</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="n">
+        <v>45530.6932638889</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="E15" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="n">
+        <v>45531.5435185185</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="A17" s="3" t="n">
+        <v>45249</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>103</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -1011,15 +1186,31 @@
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="12" t="n">
+        <v>43570</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="10" t="n">
+        <v>100</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="13" t="n">
+        <v>250</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -1040,15 +1231,31 @@
       <c r="Z18" s="6"/>
       <c r="AA18" s="6"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="12" t="n">
+        <v>45424</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="10" t="n">
+        <v>115</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="G19" s="7" t="n">
+        <v>10239</v>
+      </c>
+      <c r="H19" s="7" t="n">
+        <v>1938</v>
+      </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -1069,11 +1276,17 @@
       <c r="Z19" s="6"/>
       <c r="AA19" s="6"/>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="12" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="11"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="7"/>
@@ -1098,11 +1311,19 @@
       <c r="Z20" s="6"/>
       <c r="AA20" s="6"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="12" t="n">
+        <v>46357</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="10" t="n">
+        <v>50</v>
+      </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="7"/>
@@ -1128,7 +1349,7 @@
       <c r="AA21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="7"/>
@@ -1157,7 +1378,7 @@
       <c r="AA22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
@@ -1186,7 +1407,7 @@
       <c r="AA23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="7"/>
@@ -1215,7 +1436,7 @@
       <c r="AA24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
@@ -1244,7 +1465,7 @@
       <c r="AA25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="7"/>
@@ -1273,7 +1494,7 @@
       <c r="AA26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
@@ -1302,7 +1523,7 @@
       <c r="AA27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="7"/>
@@ -1331,7 +1552,7 @@
       <c r="AA28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
@@ -1360,7 +1581,7 @@
       <c r="AA29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="7"/>
@@ -1389,7 +1610,7 @@
       <c r="AA30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="7"/>
@@ -1418,7 +1639,7 @@
       <c r="AA31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="7"/>
@@ -1447,7 +1668,7 @@
       <c r="AA32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="7"/>
@@ -1476,7 +1697,7 @@
       <c r="AA33" s="6"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="7"/>
@@ -1505,7 +1726,7 @@
       <c r="AA34" s="6"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8"/>
+      <c r="A35" s="12"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="7"/>
@@ -1534,7 +1755,7 @@
       <c r="AA35" s="6"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8"/>
+      <c r="A36" s="12"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="7"/>
@@ -1563,7 +1784,7 @@
       <c r="AA36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8"/>
+      <c r="A37" s="12"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="7"/>
@@ -1592,7 +1813,7 @@
       <c r="AA37" s="6"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="8"/>
+      <c r="A38" s="12"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="7"/>
@@ -1621,7 +1842,7 @@
       <c r="AA38" s="6"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8"/>
+      <c r="A39" s="12"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="7"/>
@@ -1650,7 +1871,7 @@
       <c r="AA39" s="6"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8"/>
+      <c r="A40" s="12"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="7"/>
@@ -1679,7 +1900,7 @@
       <c r="AA40" s="6"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8"/>
+      <c r="A41" s="12"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="7"/>
@@ -1708,7 +1929,7 @@
       <c r="AA41" s="6"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8"/>
+      <c r="A42" s="12"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="7"/>
@@ -1737,7 +1958,7 @@
       <c r="AA42" s="6"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8"/>
+      <c r="A43" s="12"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="7"/>
@@ -1766,7 +1987,7 @@
       <c r="AA43" s="6"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="8"/>
+      <c r="A44" s="12"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="7"/>
@@ -1795,7 +2016,7 @@
       <c r="AA44" s="6"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="8"/>
+      <c r="A45" s="12"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="7"/>
@@ -1824,7 +2045,7 @@
       <c r="AA45" s="6"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="8"/>
+      <c r="A46" s="12"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="7"/>
@@ -1853,7 +2074,7 @@
       <c r="AA46" s="6"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="8"/>
+      <c r="A47" s="12"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="7"/>
@@ -1882,7 +2103,7 @@
       <c r="AA47" s="6"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="8"/>
+      <c r="A48" s="12"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="7"/>
@@ -1911,7 +2132,7 @@
       <c r="AA48" s="6"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="8"/>
+      <c r="A49" s="12"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="7"/>
@@ -1940,7 +2161,7 @@
       <c r="AA49" s="6"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="8"/>
+      <c r="A50" s="12"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="7"/>
@@ -1969,7 +2190,7 @@
       <c r="AA50" s="6"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="8"/>
+      <c r="A51" s="12"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="7"/>
@@ -1998,7 +2219,7 @@
       <c r="AA51" s="6"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="8"/>
+      <c r="A52" s="12"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="7"/>
@@ -2027,7 +2248,7 @@
       <c r="AA52" s="6"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="8"/>
+      <c r="A53" s="12"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="7"/>
@@ -2056,7 +2277,7 @@
       <c r="AA53" s="6"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="8"/>
+      <c r="A54" s="12"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="7"/>
@@ -2085,7 +2306,7 @@
       <c r="AA54" s="6"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="8"/>
+      <c r="A55" s="12"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="7"/>
@@ -2114,7 +2335,7 @@
       <c r="AA55" s="6"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="8"/>
+      <c r="A56" s="12"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="7"/>
@@ -2143,7 +2364,7 @@
       <c r="AA56" s="6"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="8"/>
+      <c r="A57" s="12"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="7"/>
@@ -2172,7 +2393,7 @@
       <c r="AA57" s="6"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="8"/>
+      <c r="A58" s="12"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="7"/>
@@ -2201,7 +2422,7 @@
       <c r="AA58" s="6"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="8"/>
+      <c r="A59" s="12"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="7"/>
@@ -2230,7 +2451,7 @@
       <c r="AA59" s="6"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="8"/>
+      <c r="A60" s="12"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
       <c r="D60" s="7"/>
@@ -2259,7 +2480,7 @@
       <c r="AA60" s="6"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="8"/>
+      <c r="A61" s="12"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="7"/>
@@ -2288,7 +2509,7 @@
       <c r="AA61" s="6"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="8"/>
+      <c r="A62" s="12"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
       <c r="D62" s="7"/>
@@ -2317,7 +2538,7 @@
       <c r="AA62" s="6"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="8"/>
+      <c r="A63" s="12"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
       <c r="D63" s="7"/>
@@ -2346,7 +2567,7 @@
       <c r="AA63" s="6"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="8"/>
+      <c r="A64" s="12"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
       <c r="D64" s="7"/>
@@ -2375,7 +2596,7 @@
       <c r="AA64" s="6"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="8"/>
+      <c r="A65" s="12"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
       <c r="D65" s="7"/>
@@ -2404,7 +2625,7 @@
       <c r="AA65" s="6"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="8"/>
+      <c r="A66" s="12"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="D66" s="7"/>
@@ -2433,7 +2654,7 @@
       <c r="AA66" s="6"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="8"/>
+      <c r="A67" s="12"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
       <c r="D67" s="7"/>
@@ -2462,7 +2683,7 @@
       <c r="AA67" s="6"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="8"/>
+      <c r="A68" s="12"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
       <c r="D68" s="7"/>
@@ -2491,7 +2712,7 @@
       <c r="AA68" s="6"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="8"/>
+      <c r="A69" s="12"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
       <c r="D69" s="7"/>
@@ -2520,7 +2741,7 @@
       <c r="AA69" s="6"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="8"/>
+      <c r="A70" s="12"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
       <c r="D70" s="7"/>
@@ -2549,7 +2770,7 @@
       <c r="AA70" s="6"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="8"/>
+      <c r="A71" s="12"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
       <c r="D71" s="7"/>
@@ -2578,7 +2799,7 @@
       <c r="AA71" s="6"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="8"/>
+      <c r="A72" s="12"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
       <c r="D72" s="7"/>
@@ -2607,7 +2828,7 @@
       <c r="AA72" s="6"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="8"/>
+      <c r="A73" s="12"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
       <c r="D73" s="7"/>
@@ -2636,7 +2857,7 @@
       <c r="AA73" s="6"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="8"/>
+      <c r="A74" s="12"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
       <c r="D74" s="7"/>
@@ -2665,7 +2886,7 @@
       <c r="AA74" s="6"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="8"/>
+      <c r="A75" s="12"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
       <c r="D75" s="7"/>
@@ -2694,7 +2915,7 @@
       <c r="AA75" s="6"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="8"/>
+      <c r="A76" s="12"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
       <c r="D76" s="7"/>
@@ -2723,7 +2944,7 @@
       <c r="AA76" s="6"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="8"/>
+      <c r="A77" s="12"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
       <c r="D77" s="7"/>
@@ -2752,7 +2973,7 @@
       <c r="AA77" s="6"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="8"/>
+      <c r="A78" s="12"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
       <c r="D78" s="7"/>
@@ -2781,7 +3002,7 @@
       <c r="AA78" s="6"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="8"/>
+      <c r="A79" s="12"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
       <c r="D79" s="7"/>
@@ -2810,7 +3031,7 @@
       <c r="AA79" s="6"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="8"/>
+      <c r="A80" s="12"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
       <c r="D80" s="7"/>
@@ -2839,7 +3060,7 @@
       <c r="AA80" s="6"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="8"/>
+      <c r="A81" s="12"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
       <c r="D81" s="7"/>
@@ -2868,7 +3089,7 @@
       <c r="AA81" s="6"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="8"/>
+      <c r="A82" s="12"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
       <c r="D82" s="7"/>
@@ -2897,7 +3118,7 @@
       <c r="AA82" s="6"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="8"/>
+      <c r="A83" s="12"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
       <c r="D83" s="7"/>
@@ -2926,7 +3147,7 @@
       <c r="AA83" s="6"/>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="8"/>
+      <c r="A84" s="12"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
       <c r="D84" s="7"/>
@@ -2955,7 +3176,7 @@
       <c r="AA84" s="6"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="8"/>
+      <c r="A85" s="12"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
       <c r="D85" s="7"/>
@@ -2984,7 +3205,7 @@
       <c r="AA85" s="6"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="8"/>
+      <c r="A86" s="12"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
       <c r="D86" s="7"/>
@@ -3013,7 +3234,7 @@
       <c r="AA86" s="6"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="8"/>
+      <c r="A87" s="12"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
       <c r="D87" s="7"/>
@@ -3042,7 +3263,7 @@
       <c r="AA87" s="6"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="8"/>
+      <c r="A88" s="12"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
       <c r="D88" s="7"/>
@@ -3071,7 +3292,7 @@
       <c r="AA88" s="6"/>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="8"/>
+      <c r="A89" s="12"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
       <c r="D89" s="7"/>
@@ -3100,7 +3321,7 @@
       <c r="AA89" s="6"/>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="8"/>
+      <c r="A90" s="12"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
       <c r="D90" s="7"/>
@@ -3129,7 +3350,7 @@
       <c r="AA90" s="6"/>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="8"/>
+      <c r="A91" s="12"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
       <c r="D91" s="7"/>
@@ -3158,7 +3379,7 @@
       <c r="AA91" s="6"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="8"/>
+      <c r="A92" s="12"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
       <c r="D92" s="7"/>
@@ -3187,7 +3408,7 @@
       <c r="AA92" s="6"/>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="8"/>
+      <c r="A93" s="12"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
       <c r="D93" s="7"/>
@@ -3216,7 +3437,7 @@
       <c r="AA93" s="6"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="8"/>
+      <c r="A94" s="12"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
       <c r="D94" s="7"/>
@@ -3245,7 +3466,7 @@
       <c r="AA94" s="6"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="8"/>
+      <c r="A95" s="12"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
       <c r="D95" s="7"/>
@@ -3274,7 +3495,7 @@
       <c r="AA95" s="6"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="8"/>
+      <c r="A96" s="12"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
       <c r="D96" s="7"/>
@@ -3303,7 +3524,7 @@
       <c r="AA96" s="6"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="8"/>
+      <c r="A97" s="12"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
       <c r="D97" s="7"/>
@@ -3332,7 +3553,7 @@
       <c r="AA97" s="6"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="8"/>
+      <c r="A98" s="12"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
       <c r="D98" s="7"/>
@@ -3361,7 +3582,7 @@
       <c r="AA98" s="6"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="8"/>
+      <c r="A99" s="12"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
       <c r="D99" s="7"/>
@@ -3390,7 +3611,7 @@
       <c r="AA99" s="6"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="8"/>
+      <c r="A100" s="12"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
       <c r="D100" s="7"/>
@@ -3419,7 +3640,7 @@
       <c r="AA100" s="6"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="8"/>
+      <c r="A101" s="12"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
       <c r="D101" s="7"/>
@@ -3448,7 +3669,7 @@
       <c r="AA101" s="6"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="8"/>
+      <c r="A102" s="12"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
       <c r="D102" s="7"/>
@@ -3477,7 +3698,7 @@
       <c r="AA102" s="6"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="8"/>
+      <c r="A103" s="12"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
       <c r="D103" s="7"/>
@@ -3506,7 +3727,7 @@
       <c r="AA103" s="6"/>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="8"/>
+      <c r="A104" s="12"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
       <c r="D104" s="7"/>
